--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_267.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_267.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,718 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1053361053361053</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(24.76, 34.92)]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(12.394648, 21.12535)]</t>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>[('0:00:11.600000', '0:00:17.420000'), ('0:01:00.120000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(94.4, 104.48)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2697674418604651</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:37.760000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.140000', '0:00:30.180000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1214285714285714</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#', 'E', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'G']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(75.671359, 79.964285)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(4.733242, 8.959274)]</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04), (12.14, 20.02)]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:03.780000', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.14, 32.76)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[('0:00:13.600000', '0:00:17.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:34.560000', '0:00:36.420000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['C#:dim7', 'D:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(67.76, 84.78)]</t>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:16.420000', '0:00:19.360000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(41.92, 59.04)]</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.38, 24.82)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D', 'D/b7', 'G/3']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.090897, 16.615704)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(32.879478, 37.291269)]</t>
+          <t>[('0:00:05', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(11.94, 17.6)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(96.2, 113.76)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
